--- a/03_BuySignalScan/02_ASharesPro/联盟成员清单.xlsx
+++ b/03_BuySignalScan/02_ASharesPro/联盟成员清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quant\01_SwProj\04_VectorBT\02_Lima\Lima_Gen1\03_BuySignalScan\02_ASharesPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6FBEEE-3094-4A65-809F-3840B63FD7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A37E34-2BE4-4B9D-A59E-F332800CE460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{38998CBB-08AB-45AD-87E4-CE12D39D03C1}"/>
   </bookViews>
@@ -31,21 +31,42 @@
     <t>人福医药</t>
   </si>
   <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>浪潮信息</t>
+  </si>
+  <si>
+    <t>一品红</t>
+  </si>
+  <si>
+    <t>海思科</t>
+  </si>
+  <si>
+    <t>长电科技</t>
+  </si>
+  <si>
+    <t>北方华创</t>
+  </si>
+  <si>
+    <t>星宸科技</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>豪威集团</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
     <t>中材科技</t>
   </si>
   <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>浪潮信息</t>
-  </si>
-  <si>
-    <t>一品红</t>
-  </si>
-  <si>
-    <t>海思科</t>
-  </si>
-  <si>
     <t>蓝英装备</t>
   </si>
   <si>
@@ -58,12 +79,6 @@
     <t>通富微电</t>
   </si>
   <si>
-    <t>长电科技</t>
-  </si>
-  <si>
-    <t>北方华创</t>
-  </si>
-  <si>
     <t>晶方科技</t>
   </si>
   <si>
@@ -76,34 +91,19 @@
     <t>全志科技</t>
   </si>
   <si>
-    <t>星宸科技</t>
-  </si>
-  <si>
     <t>北京君正</t>
   </si>
   <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
     <t>瑞芯微</t>
   </si>
   <si>
-    <t>豪威集团</t>
-  </si>
-  <si>
     <t>华大九天</t>
   </si>
   <si>
-    <t>古井贡酒</t>
-  </si>
-  <si>
     <t>洋河股份</t>
   </si>
   <si>
     <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
   </si>
   <si>
     <t>五 粮 液</t>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
         <v>002080</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>002230</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>000977</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>300723</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>002653</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>300293</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
         <v>300346</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
         <v>300604</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>002156</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1248,7 +1248,7 @@
         <v>600584</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>002371</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
         <v>603005</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
         <v>301297</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>300661</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>300458</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
         <v>301536</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
         <v>300223</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
         <v>603986</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1329,7 +1329,7 @@
         <v>603893</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>603501</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>301269</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>000596</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>002304</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>000568</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>600809</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
